--- a/biology/Médecine/Alexandre_de_Winiwarter/Alexandre_de_Winiwarter.xlsx
+++ b/biology/Médecine/Alexandre_de_Winiwarter/Alexandre_de_Winiwarter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre de Winiwarter, né à Vienne le 22 avril 1848 et mort à Liège le 31 octobre 1917, est un chirurgien autrichien naturalisé belge, professeur à l'Université de Liège. Il est le frère de Felix von Winiwarter (en), médecin. Il est le père de Hans de Winiwarter, embryologiste et collectionneur d'art japonais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre de Winiwarter a obtenu son doctorat en médecine à l'Université de Vienne en 1870. Il est chirurgien assistant à la Clinique Universitaire de Vienne sous la direction de Theodor Billroth, un pionnier des pratiques chirurgicales modernes. Billroth le tenait pour l'un de ses meilleurs élèves. Ils avaient réalisé ensemble sur des animaux des opérations expérimentales de l’œsophage et du larynx. Il passe son habilitation à l'enseignement de la chirurgie en 1876. Avec Carl Gussenbauer, il réalise avec succès une gastrectomie partielle expérimentale dans un cas de cancer du pylore.
 Il devient chef du service de chirurgie de l'Hôpital pour enfants Prince Rudolf. En 1878, à l'invitation de l'Université de Liège, il prend la chaire de chirurgie. Il acquiert la nationalité Belge. Il est très apprécié de ses étudiants et devient un personnage influent à l'Université et dans la ville Liège. Mais à Liège il a peu de temps à consacrer à la chirurgie expérimentale. Il se concentre sur l'opération de diverses sortes de cancer.
@@ -545,7 +559,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Untersuchungen über die Gehörschnecke der Säugethiere (Études sur la cochlée chez les mammifères), 1870.
 (de) Zur pathologischen Anatomie der Leber (Sur l'anatomie pathologique du foie), 1872.
